--- a/analysis/paper-2013-10/table1-2-regression/V31/Table2_Murray_1800.xlsx
+++ b/analysis/paper-2013-10/table1-2-regression/V31/Table2_Murray_1800.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="14320" tabRatio="500" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="14320" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Murray_Format" sheetId="7" r:id="rId1"/>
@@ -377,48 +377,6 @@
     <t>Chinese</t>
   </si>
   <si>
-    <t>-8.525***</t>
-  </si>
-  <si>
-    <t>0.711***</t>
-  </si>
-  <si>
-    <t>0.355**</t>
-  </si>
-  <si>
-    <t>-8.707**</t>
-  </si>
-  <si>
-    <t>0.812***</t>
-  </si>
-  <si>
-    <t>0.830***</t>
-  </si>
-  <si>
-    <t>0.281*</t>
-  </si>
-  <si>
-    <t>1.936***</t>
-  </si>
-  <si>
-    <t>1.976***</t>
-  </si>
-  <si>
-    <t>1.796**</t>
-  </si>
-  <si>
-    <t>2.194***</t>
-  </si>
-  <si>
-    <t>1.909**</t>
-  </si>
-  <si>
-    <t>2.698***</t>
-  </si>
-  <si>
-    <t>2.192***</t>
-  </si>
-  <si>
     <t>country_code</t>
   </si>
   <si>
@@ -459,6 +417,48 @@
   </si>
   <si>
     <t>China</t>
+  </si>
+  <si>
+    <t>-8.489***</t>
+  </si>
+  <si>
+    <t>0.757***</t>
+  </si>
+  <si>
+    <t>0.425**</t>
+  </si>
+  <si>
+    <t>-8.797***</t>
+  </si>
+  <si>
+    <t>0.792***</t>
+  </si>
+  <si>
+    <t>0.823***</t>
+  </si>
+  <si>
+    <t>0.303**</t>
+  </si>
+  <si>
+    <t>1.942***</t>
+  </si>
+  <si>
+    <t>2.010***</t>
+  </si>
+  <si>
+    <t>1.733**</t>
+  </si>
+  <si>
+    <t>2.088***</t>
+  </si>
+  <si>
+    <t>1.566**</t>
+  </si>
+  <si>
+    <t>2.597***</t>
+  </si>
+  <si>
+    <t>2.021***</t>
   </si>
 </sst>
 </file>
@@ -646,9 +646,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="354">
+  <cellStyleXfs count="358">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1123,7 +1127,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="354">
+  <cellStyles count="358">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1300,6 +1304,8 @@
     <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1476,6 +1482,8 @@
     <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1809,7 +1817,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1880,22 +1888,22 @@
       </c>
       <c r="B6" s="23" t="str">
         <f>Regression_Orig!B4</f>
-        <v>0.812***</v>
+        <v>0.792***</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="str">
         <f>Regression_Orig!F4</f>
-        <v>0.830***</v>
+        <v>0.823***</v>
       </c>
       <c r="G6" s="23">
         <f>Regression_Orig!G4</f>
-        <v>0.14499999999999999</v>
+        <v>0.246</v>
       </c>
       <c r="H6" s="23" t="str">
         <f>Regression_Orig!H4</f>
-        <v>0.281*</v>
+        <v>0.303**</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1904,22 +1912,22 @@
       </c>
       <c r="B7" s="6">
         <f>Regression_Orig!B5</f>
-        <v>-0.129</v>
+        <v>-0.11600000000000001</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
         <f>Regression_Orig!F5</f>
-        <v>-0.188</v>
+        <v>-0.16900000000000001</v>
       </c>
       <c r="G7" s="6">
         <f>Regression_Orig!G5</f>
-        <v>-0.22</v>
+        <v>-0.20699999999999999</v>
       </c>
       <c r="H7" s="6">
         <f>Regression_Orig!H5</f>
-        <v>-0.109</v>
+        <v>-9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17">
@@ -1928,22 +1936,22 @@
       </c>
       <c r="B8" s="23" t="str">
         <f>Regression_Orig!B6</f>
-        <v>1.936***</v>
+        <v>1.942***</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="str">
         <f>Regression_Orig!F6</f>
-        <v>1.976***</v>
+        <v>2.010***</v>
       </c>
       <c r="G8" s="23">
         <f>Regression_Orig!G6</f>
-        <v>0.20599999999999999</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="H8" s="23">
         <f>Regression_Orig!H6</f>
-        <v>0.38</v>
+        <v>0.50700000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1952,22 +1960,22 @@
       </c>
       <c r="B9" s="6">
         <f>Regression_Orig!B7</f>
-        <v>-0.40899999999999997</v>
+        <v>-0.36799999999999999</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
         <f>Regression_Orig!F7</f>
-        <v>-0.51400000000000001</v>
+        <v>-0.46200000000000002</v>
       </c>
       <c r="G9" s="6">
         <f>Regression_Orig!G7</f>
-        <v>-0.60399999999999998</v>
+        <v>-0.56699999999999995</v>
       </c>
       <c r="H9" s="6">
         <f>Regression_Orig!H7</f>
-        <v>-0.33200000000000002</v>
+        <v>-0.28299999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1977,13 +1985,13 @@
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="str">
         <f>Regression_Orig!C8</f>
-        <v>1.796**</v>
+        <v>1.733**</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23">
         <f>Regression_Orig!F8</f>
-        <v>-7.6999999999999999E-2</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
@@ -1995,13 +2003,13 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6">
         <f>Regression_Orig!C9</f>
-        <v>-0.52700000000000002</v>
+        <v>-0.499</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6">
         <f>Regression_Orig!F9</f>
-        <v>-0.57999999999999996</v>
+        <v>-0.52100000000000002</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2014,13 +2022,13 @@
       <c r="C12" s="23"/>
       <c r="D12" s="23" t="str">
         <f>Regression_Orig!D10</f>
-        <v>2.194***</v>
+        <v>2.088***</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23" t="str">
         <f>Regression_Orig!G10</f>
-        <v>1.909**</v>
+        <v>1.566**</v>
       </c>
       <c r="H12" s="23"/>
     </row>
@@ -2032,13 +2040,13 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6">
         <f>Regression_Orig!D11</f>
-        <v>-0.251</v>
+        <v>-0.23899999999999999</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6">
         <f>Regression_Orig!G11</f>
-        <v>-0.55200000000000005</v>
+        <v>-0.51800000000000002</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -2051,13 +2059,13 @@
       <c r="D14" s="23"/>
       <c r="E14" s="23" t="str">
         <f>Regression_Orig!E12</f>
-        <v>2.698***</v>
+        <v>2.597***</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="str">
         <f>Regression_Orig!H12</f>
-        <v>2.192***</v>
+        <v>2.021***</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2067,13 +2075,13 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6">
         <f>Regression_Orig!E13</f>
-        <v>-0.24099999999999999</v>
+        <v>-0.217</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6">
         <f>Regression_Orig!H13</f>
-        <v>-0.32200000000000001</v>
+        <v>-0.27500000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2082,62 +2090,62 @@
       </c>
       <c r="B16" s="23" t="str">
         <f>Regression_Orig!B2</f>
-        <v>-8.525***</v>
+        <v>-8.489***</v>
       </c>
       <c r="C16" s="23" t="str">
         <f>Regression_Orig!C2</f>
-        <v>0.711***</v>
+        <v>0.757***</v>
       </c>
       <c r="D16" s="23" t="str">
         <f>Regression_Orig!D2</f>
-        <v>0.355**</v>
+        <v>0.425**</v>
       </c>
       <c r="E16" s="23">
         <f>Regression_Orig!E2</f>
-        <v>-8.4000000000000005E-2</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="F16" s="23" t="str">
         <f>Regression_Orig!F2</f>
-        <v>-8.707**</v>
+        <v>-8.797***</v>
       </c>
       <c r="G16" s="23">
         <f>Regression_Orig!G2</f>
-        <v>-0.66900000000000004</v>
+        <v>-2.0449999999999999</v>
       </c>
       <c r="H16" s="23">
         <f>Regression_Orig!H2</f>
-        <v>-1.9550000000000001</v>
+        <v>-2.4319999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8"/>
       <c r="B17" s="5">
         <f>Regression_Orig!B3</f>
-        <v>-1.9019999999999999</v>
+        <v>-1.712</v>
       </c>
       <c r="C17" s="5">
         <f>Regression_Orig!C3</f>
-        <v>-0.189</v>
+        <v>-0.17899999999999999</v>
       </c>
       <c r="D17" s="5">
         <f>Regression_Orig!D3</f>
-        <v>-0.121</v>
+        <v>-0.115</v>
       </c>
       <c r="E17" s="5">
         <f>Regression_Orig!E3</f>
-        <v>-0.13</v>
+        <v>-0.11700000000000001</v>
       </c>
       <c r="F17" s="5">
         <f>Regression_Orig!F3</f>
-        <v>-2.3719999999999999</v>
+        <v>-2.1320000000000001</v>
       </c>
       <c r="G17" s="5">
         <f>Regression_Orig!G3</f>
-        <v>-2.7629999999999999</v>
+        <v>-2.5939999999999999</v>
       </c>
       <c r="H17" s="5">
         <f>Regression_Orig!H3</f>
-        <v>-1.478</v>
+        <v>-1.262</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2212,11 +2220,11 @@
       </c>
       <c r="B20" s="3">
         <f>Regression_Orig!B15</f>
-        <v>0.63600000000000001</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="C20" s="3">
         <f>Regression_Orig!C15</f>
-        <v>0.317</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D20" s="3">
         <f>Regression_Orig!D15</f>
@@ -2224,19 +2232,19 @@
       </c>
       <c r="E20" s="3">
         <f>Regression_Orig!E15</f>
-        <v>0.83399999999999996</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="F20" s="3">
         <f>Regression_Orig!F15</f>
-        <v>0.63600000000000001</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="G20" s="3">
         <f>Regression_Orig!G15</f>
-        <v>0.76100000000000001</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="H20" s="3">
         <f>Regression_Orig!H15</f>
-        <v>0.879</v>
+        <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2245,31 +2253,31 @@
       </c>
       <c r="B21" s="16">
         <f>Regression_Orig!B16</f>
-        <v>0.60599999999999998</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="C21" s="16">
         <f>Regression_Orig!C16</f>
-        <v>0.28999999999999998</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="D21" s="16">
         <f>Regression_Orig!D16</f>
-        <v>0.74399999999999999</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="E21" s="16">
         <f>Regression_Orig!E16</f>
-        <v>0.82699999999999996</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F21" s="16">
         <f>Regression_Orig!F16</f>
-        <v>0.58899999999999997</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="G21" s="16">
         <f>Regression_Orig!G16</f>
-        <v>0.72899999999999998</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="H21" s="16">
         <f>Regression_Orig!H16</f>
-        <v>0.86299999999999999</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="7" customHeight="1">
@@ -2370,22 +2378,22 @@
       </c>
       <c r="B6" s="23" t="str">
         <f>Regression_Orig!B4</f>
-        <v>0.812***</v>
+        <v>0.792***</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="str">
         <f>Regression_Orig!F4</f>
-        <v>0.830***</v>
+        <v>0.823***</v>
       </c>
       <c r="G6" s="23">
         <f>Regression_Orig!G4</f>
-        <v>0.14499999999999999</v>
+        <v>0.246</v>
       </c>
       <c r="H6" s="23" t="str">
         <f>Regression_Orig!H4</f>
-        <v>0.281*</v>
+        <v>0.303**</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2394,22 +2402,22 @@
       </c>
       <c r="B7" s="6">
         <f>Regression_Orig!B5</f>
-        <v>-0.129</v>
+        <v>-0.11600000000000001</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
         <f>Regression_Orig!F5</f>
-        <v>-0.188</v>
+        <v>-0.16900000000000001</v>
       </c>
       <c r="G7" s="6">
         <f>Regression_Orig!G5</f>
-        <v>-0.22</v>
+        <v>-0.20699999999999999</v>
       </c>
       <c r="H7" s="6">
         <f>Regression_Orig!H5</f>
-        <v>-0.109</v>
+        <v>-9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17">
@@ -2418,22 +2426,22 @@
       </c>
       <c r="B8" s="23" t="str">
         <f>Regression_Orig!B6</f>
-        <v>1.936***</v>
+        <v>1.942***</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="str">
         <f>Regression_Orig!F6</f>
-        <v>1.976***</v>
+        <v>2.010***</v>
       </c>
       <c r="G8" s="23">
         <f>Regression_Orig!G6</f>
-        <v>0.20599999999999999</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="H8" s="23">
         <f>Regression_Orig!H6</f>
-        <v>0.38</v>
+        <v>0.50700000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2442,22 +2450,22 @@
       </c>
       <c r="B9" s="6">
         <f>Regression_Orig!B7</f>
-        <v>-0.40899999999999997</v>
+        <v>-0.36799999999999999</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
         <f>Regression_Orig!F7</f>
-        <v>-0.51400000000000001</v>
+        <v>-0.46200000000000002</v>
       </c>
       <c r="G9" s="6">
         <f>Regression_Orig!G7</f>
-        <v>-0.60399999999999998</v>
+        <v>-0.56699999999999995</v>
       </c>
       <c r="H9" s="6">
         <f>Regression_Orig!H7</f>
-        <v>-0.33200000000000002</v>
+        <v>-0.28299999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2467,13 +2475,13 @@
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="str">
         <f>Regression_Orig!C8</f>
-        <v>1.796**</v>
+        <v>1.733**</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23">
         <f>Regression_Orig!F8</f>
-        <v>-7.6999999999999999E-2</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
@@ -2485,13 +2493,13 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6">
         <f>Regression_Orig!C9</f>
-        <v>-0.52700000000000002</v>
+        <v>-0.499</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6">
         <f>Regression_Orig!F9</f>
-        <v>-0.57999999999999996</v>
+        <v>-0.52100000000000002</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2504,13 +2512,13 @@
       <c r="C12" s="23"/>
       <c r="D12" s="23" t="str">
         <f>Regression_Orig!D10</f>
-        <v>2.194***</v>
+        <v>2.088***</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23" t="str">
         <f>Regression_Orig!G10</f>
-        <v>1.909**</v>
+        <v>1.566**</v>
       </c>
       <c r="H12" s="23"/>
     </row>
@@ -2522,13 +2530,13 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6">
         <f>Regression_Orig!D11</f>
-        <v>-0.251</v>
+        <v>-0.23899999999999999</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6">
         <f>Regression_Orig!G11</f>
-        <v>-0.55200000000000005</v>
+        <v>-0.51800000000000002</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -2541,13 +2549,13 @@
       <c r="D14" s="23"/>
       <c r="E14" s="23" t="str">
         <f>Regression_Orig!E12</f>
-        <v>2.698***</v>
+        <v>2.597***</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="str">
         <f>Regression_Orig!H12</f>
-        <v>2.192***</v>
+        <v>2.021***</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2557,13 +2565,13 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6">
         <f>Regression_Orig!E13</f>
-        <v>-0.24099999999999999</v>
+        <v>-0.217</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6">
         <f>Regression_Orig!H13</f>
-        <v>-0.32200000000000001</v>
+        <v>-0.27500000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2572,62 +2580,62 @@
       </c>
       <c r="B16" s="23" t="str">
         <f>Regression_Orig!B2</f>
-        <v>-8.525***</v>
+        <v>-8.489***</v>
       </c>
       <c r="C16" s="23" t="str">
         <f>Regression_Orig!C2</f>
-        <v>0.711***</v>
+        <v>0.757***</v>
       </c>
       <c r="D16" s="23" t="str">
         <f>Regression_Orig!D2</f>
-        <v>0.355**</v>
+        <v>0.425**</v>
       </c>
       <c r="E16" s="23">
         <f>Regression_Orig!E2</f>
-        <v>-8.4000000000000005E-2</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="F16" s="23" t="str">
         <f>Regression_Orig!F2</f>
-        <v>-8.707**</v>
+        <v>-8.797***</v>
       </c>
       <c r="G16" s="23">
         <f>Regression_Orig!G2</f>
-        <v>-0.66900000000000004</v>
+        <v>-2.0449999999999999</v>
       </c>
       <c r="H16" s="23">
         <f>Regression_Orig!H2</f>
-        <v>-1.9550000000000001</v>
+        <v>-2.4319999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8"/>
       <c r="B17" s="5">
         <f>Regression_Orig!B3</f>
-        <v>-1.9019999999999999</v>
+        <v>-1.712</v>
       </c>
       <c r="C17" s="5">
         <f>Regression_Orig!C3</f>
-        <v>-0.189</v>
+        <v>-0.17899999999999999</v>
       </c>
       <c r="D17" s="5">
         <f>Regression_Orig!D3</f>
-        <v>-0.121</v>
+        <v>-0.115</v>
       </c>
       <c r="E17" s="5">
         <f>Regression_Orig!E3</f>
-        <v>-0.13</v>
+        <v>-0.11700000000000001</v>
       </c>
       <c r="F17" s="5">
         <f>Regression_Orig!F3</f>
-        <v>-2.3719999999999999</v>
+        <v>-2.1320000000000001</v>
       </c>
       <c r="G17" s="5">
         <f>Regression_Orig!G3</f>
-        <v>-2.7629999999999999</v>
+        <v>-2.5939999999999999</v>
       </c>
       <c r="H17" s="5">
         <f>Regression_Orig!H3</f>
-        <v>-1.478</v>
+        <v>-1.262</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2702,11 +2710,11 @@
       </c>
       <c r="B20" s="3">
         <f>Regression_Orig!B15</f>
-        <v>0.63600000000000001</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="C20" s="3">
         <f>Regression_Orig!C15</f>
-        <v>0.317</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D20" s="3">
         <f>Regression_Orig!D15</f>
@@ -2714,19 +2722,19 @@
       </c>
       <c r="E20" s="3">
         <f>Regression_Orig!E15</f>
-        <v>0.83399999999999996</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="F20" s="3">
         <f>Regression_Orig!F15</f>
-        <v>0.63600000000000001</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="G20" s="3">
         <f>Regression_Orig!G15</f>
-        <v>0.76100000000000001</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="H20" s="3">
         <f>Regression_Orig!H15</f>
-        <v>0.879</v>
+        <v>0.90300000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2735,31 +2743,31 @@
       </c>
       <c r="B21" s="16">
         <f>Regression_Orig!B16</f>
-        <v>0.60599999999999998</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="C21" s="16">
         <f>Regression_Orig!C16</f>
-        <v>0.28999999999999998</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="D21" s="16">
         <f>Regression_Orig!D16</f>
-        <v>0.74399999999999999</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="E21" s="16">
         <f>Regression_Orig!E16</f>
-        <v>0.82699999999999996</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F21" s="16">
         <f>Regression_Orig!F16</f>
-        <v>0.58899999999999997</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="G21" s="16">
         <f>Regression_Orig!G16</f>
-        <v>0.72899999999999998</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="H21" s="16">
         <f>Regression_Orig!H16</f>
-        <v>0.86299999999999999</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="7" customHeight="1">
@@ -2832,25 +2840,25 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E2">
-        <v>-8.4000000000000005E-2</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="G2">
-        <v>-0.66900000000000004</v>
+        <v>-2.0449999999999999</v>
       </c>
       <c r="H2">
-        <v>-1.9550000000000001</v>
+        <v>-2.4319999999999999</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -2862,25 +2870,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="B3">
-        <v>-1.9019999999999999</v>
+        <v>-1.712</v>
       </c>
       <c r="C3">
-        <v>-0.189</v>
+        <v>-0.17899999999999999</v>
       </c>
       <c r="D3">
-        <v>-0.121</v>
+        <v>-0.115</v>
       </c>
       <c r="E3">
-        <v>-0.13</v>
+        <v>-0.11700000000000001</v>
       </c>
       <c r="F3">
-        <v>-2.3719999999999999</v>
+        <v>-2.1320000000000001</v>
       </c>
       <c r="G3">
-        <v>-2.7629999999999999</v>
+        <v>-2.5939999999999999</v>
       </c>
       <c r="H3">
-        <v>-1.478</v>
+        <v>-1.262</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -2895,16 +2903,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="G4">
-        <v>0.14499999999999999</v>
+        <v>0.246</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -2916,16 +2924,16 @@
     </row>
     <row r="5" spans="1:15">
       <c r="B5">
-        <v>-0.129</v>
+        <v>-0.11600000000000001</v>
       </c>
       <c r="F5">
-        <v>-0.188</v>
+        <v>-0.16900000000000001</v>
       </c>
       <c r="G5">
-        <v>-0.22</v>
+        <v>-0.20699999999999999</v>
       </c>
       <c r="H5">
-        <v>-0.109</v>
+        <v>-9.2999999999999999E-2</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -2940,16 +2948,16 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="G6">
-        <v>0.20599999999999999</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="H6">
-        <v>0.38</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -2961,16 +2969,16 @@
     </row>
     <row r="7" spans="1:15">
       <c r="B7">
-        <v>-0.40899999999999997</v>
+        <v>-0.36799999999999999</v>
       </c>
       <c r="F7">
-        <v>-0.51400000000000001</v>
+        <v>-0.46200000000000002</v>
       </c>
       <c r="G7">
-        <v>-0.60399999999999998</v>
+        <v>-0.56699999999999995</v>
       </c>
       <c r="H7">
-        <v>-0.33200000000000002</v>
+        <v>-0.28299999999999997</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -2985,10 +2993,10 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F8">
-        <v>-7.6999999999999999E-2</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -3000,10 +3008,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="C9">
-        <v>-0.52700000000000002</v>
+        <v>-0.499</v>
       </c>
       <c r="F9">
-        <v>-0.57999999999999996</v>
+        <v>-0.52100000000000002</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -3018,10 +3026,10 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -3033,10 +3041,10 @@
     </row>
     <row r="11" spans="1:15">
       <c r="D11">
-        <v>-0.251</v>
+        <v>-0.23899999999999999</v>
       </c>
       <c r="G11">
-        <v>-0.55200000000000005</v>
+        <v>-0.51800000000000002</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -3051,10 +3059,10 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -3066,10 +3074,10 @@
     </row>
     <row r="13" spans="1:15">
       <c r="E13">
-        <v>-0.24099999999999999</v>
+        <v>-0.217</v>
       </c>
       <c r="H13">
-        <v>-0.32200000000000001</v>
+        <v>-0.27500000000000002</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -3084,25 +3092,25 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.45500000000000002</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="C14">
-        <v>0.61</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="D14">
-        <v>0.36699999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="E14">
-        <v>0.30099999999999999</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="F14">
-        <v>0.46400000000000002</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="G14">
-        <v>0.377</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="H14">
-        <v>0.26800000000000002</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -3117,25 +3125,25 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.63600000000000001</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="C15">
-        <v>0.317</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D15">
         <v>0.753</v>
       </c>
       <c r="E15">
-        <v>0.83399999999999996</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="F15">
-        <v>0.63600000000000001</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="G15">
-        <v>0.76100000000000001</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="H15">
-        <v>0.879</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -3150,25 +3158,25 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>0.60599999999999998</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="C16">
-        <v>0.28999999999999998</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="D16">
-        <v>0.74399999999999999</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="E16">
-        <v>0.82699999999999996</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F16">
-        <v>0.58899999999999997</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="G16">
-        <v>0.72899999999999998</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="H16">
-        <v>0.86299999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -3183,25 +3191,25 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>20.954999999999998</v>
+        <v>24.931000000000001</v>
       </c>
       <c r="C17">
-        <v>11.611000000000001</v>
+        <v>12.061999999999999</v>
       </c>
       <c r="D17">
-        <v>76.415000000000006</v>
+        <v>76.034999999999997</v>
       </c>
       <c r="E17">
-        <v>125.542</v>
+        <v>143.648</v>
       </c>
       <c r="F17">
-        <v>13.404</v>
+        <v>15.993</v>
       </c>
       <c r="G17">
-        <v>24.353000000000002</v>
+        <v>25.306999999999999</v>
       </c>
       <c r="H17">
-        <v>55.802</v>
+        <v>71.328000000000003</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -3293,7 +3301,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3425,7 +3433,7 @@
         <v>CH</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="G10" s="18">
         <f>Top10_Orig!B54</f>
@@ -3613,7 +3621,7 @@
       </c>
       <c r="C26" s="27">
         <f>Top10_Orig!B14</f>
-        <v>0.69345841902274596</v>
+        <v>0.69345841902274497</v>
       </c>
       <c r="D26" s="18"/>
     </row>
@@ -3627,7 +3635,7 @@
       </c>
       <c r="C27" s="27">
         <f>Top10_Orig!B15</f>
-        <v>0.570558612190606</v>
+        <v>0.570558612190605</v>
       </c>
       <c r="D27" s="18"/>
     </row>
@@ -3641,7 +3649,7 @@
       </c>
       <c r="C28" s="27">
         <f>Top10_Orig!B16</f>
-        <v>0.50814412819499999</v>
+        <v>0.50814412819499899</v>
       </c>
       <c r="D28" s="18"/>
     </row>
@@ -3655,7 +3663,7 @@
       </c>
       <c r="C29" s="27">
         <f>Top10_Orig!B17</f>
-        <v>0.47543833215770898</v>
+        <v>0.47543833215770798</v>
       </c>
       <c r="D29" s="18"/>
     </row>
@@ -3669,7 +3677,7 @@
       </c>
       <c r="C30" s="27">
         <f>Top10_Orig!B18</f>
-        <v>0.47336187734823998</v>
+        <v>0.47336187734823898</v>
       </c>
       <c r="D30" s="18"/>
     </row>
@@ -3683,7 +3691,7 @@
       </c>
       <c r="C31" s="28">
         <f>Top10_Orig!B19</f>
-        <v>0.427695513933463</v>
+        <v>0.427695513933462</v>
       </c>
       <c r="D31" s="18"/>
     </row>
@@ -3723,7 +3731,7 @@
       </c>
       <c r="C35" s="27">
         <f>Top10_Orig!B25</f>
-        <v>0.88185388582830604</v>
+        <v>0.88185388582830904</v>
       </c>
       <c r="D35" s="18"/>
     </row>
@@ -3737,7 +3745,7 @@
       </c>
       <c r="C36" s="27">
         <f>Top10_Orig!B26</f>
-        <v>0.81847217309303</v>
+        <v>0.818472173093031</v>
       </c>
       <c r="D36" s="18"/>
     </row>
@@ -3765,7 +3773,7 @@
       </c>
       <c r="C38" s="27">
         <f>Top10_Orig!B28</f>
-        <v>0.71678019423930694</v>
+        <v>0.71678019423930805</v>
       </c>
       <c r="D38" s="18"/>
     </row>
@@ -3779,7 +3787,7 @@
       </c>
       <c r="C39" s="27">
         <f>Top10_Orig!B29</f>
-        <v>0.66787741888797902</v>
+        <v>0.66787741888798002</v>
       </c>
       <c r="D39" s="18"/>
     </row>
@@ -3793,7 +3801,7 @@
       </c>
       <c r="C40" s="28">
         <f>Top10_Orig!B30</f>
-        <v>0.64143848111860802</v>
+        <v>0.64143848111860902</v>
       </c>
       <c r="D40" s="18"/>
     </row>
@@ -3843,7 +3851,7 @@
       </c>
       <c r="C45" s="30">
         <f>Top10_Orig!B37</f>
-        <v>0.90848577814725495</v>
+        <v>0.90848577814725595</v>
       </c>
       <c r="D45" s="18"/>
     </row>
@@ -3857,7 +3865,7 @@
       </c>
       <c r="C46" s="30">
         <f>Top10_Orig!B38</f>
-        <v>0.85798762905557702</v>
+        <v>0.85798762905557502</v>
       </c>
       <c r="D46" s="18"/>
     </row>
@@ -3871,7 +3879,7 @@
       </c>
       <c r="C47" s="30">
         <f>Top10_Orig!B39</f>
-        <v>0.77715725912947198</v>
+        <v>0.77715725912947098</v>
       </c>
       <c r="D47" s="18"/>
     </row>
@@ -3926,7 +3934,7 @@
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:B56"/>
+      <selection activeCell="B8" sqref="A1:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4034,7 +4042,7 @@
         <v>56</v>
       </c>
       <c r="B14">
-        <v>0.69345841902274596</v>
+        <v>0.69345841902274497</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4042,7 +4050,7 @@
         <v>59</v>
       </c>
       <c r="B15">
-        <v>0.570558612190606</v>
+        <v>0.570558612190605</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4050,7 +4058,7 @@
         <v>54</v>
       </c>
       <c r="B16">
-        <v>0.50814412819499999</v>
+        <v>0.50814412819499899</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4058,7 +4066,7 @@
         <v>60</v>
       </c>
       <c r="B17">
-        <v>0.47543833215770898</v>
+        <v>0.47543833215770798</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4066,7 +4074,7 @@
         <v>57</v>
       </c>
       <c r="B18">
-        <v>0.47336187734823998</v>
+        <v>0.47336187734823898</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4074,7 +4082,7 @@
         <v>63</v>
       </c>
       <c r="B19">
-        <v>0.427695513933463</v>
+        <v>0.427695513933462</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4119,7 +4127,7 @@
         <v>55</v>
       </c>
       <c r="B25">
-        <v>0.88185388582830604</v>
+        <v>0.88185388582830904</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4127,7 +4135,7 @@
         <v>54</v>
       </c>
       <c r="B26">
-        <v>0.81847217309303</v>
+        <v>0.818472173093031</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4143,7 +4151,7 @@
         <v>65</v>
       </c>
       <c r="B28">
-        <v>0.71678019423930694</v>
+        <v>0.71678019423930805</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4151,7 +4159,7 @@
         <v>57</v>
       </c>
       <c r="B29">
-        <v>0.66787741888797902</v>
+        <v>0.66787741888798002</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4159,7 +4167,7 @@
         <v>58</v>
       </c>
       <c r="B30">
-        <v>0.64143848111860802</v>
+        <v>0.64143848111860902</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4167,7 +4175,7 @@
         <v>66</v>
       </c>
       <c r="B31">
-        <v>0.63798070871828205</v>
+        <v>0.63798070871828305</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4175,7 +4183,7 @@
         <v>60</v>
       </c>
       <c r="B32">
-        <v>0.58223225610346196</v>
+        <v>0.58223225610346296</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4212,7 +4220,7 @@
         <v>54</v>
       </c>
       <c r="B37">
-        <v>0.90848577814725495</v>
+        <v>0.90848577814725595</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4220,7 +4228,7 @@
         <v>58</v>
       </c>
       <c r="B38">
-        <v>0.85798762905557702</v>
+        <v>0.85798762905557502</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4228,7 +4236,7 @@
         <v>56</v>
       </c>
       <c r="B39">
-        <v>0.77715725912947198</v>
+        <v>0.77715725912947098</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4260,7 +4268,7 @@
         <v>60</v>
       </c>
       <c r="B43">
-        <v>0.54048589901347199</v>
+        <v>0.54048589901347099</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4273,15 +4281,15 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B46">
         <v>272</v>
@@ -4289,7 +4297,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B47">
         <v>267</v>
@@ -4297,7 +4305,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B48">
         <v>236</v>
@@ -4305,7 +4313,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B49">
         <v>230</v>
@@ -4313,7 +4321,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B50">
         <v>118</v>
@@ -4321,7 +4329,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B51">
         <v>58</v>
@@ -4329,7 +4337,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B52">
         <v>57</v>
@@ -4337,7 +4345,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -4345,7 +4353,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B54">
         <v>32</v>
@@ -4353,7 +4361,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B55">
         <v>31</v>
@@ -4361,7 +4369,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B56">
         <v>28</v>
